--- a/Base/Teams/Rams/Players Stats.xlsx
+++ b/Base/Teams/Rams/Players Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Rams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF801666-D75C-418B-B553-F53CD7E621B5}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE05432-FB4A-443B-A639-DA6810037990}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>O.Beckham</t>
+  </si>
+  <si>
+    <t>K.Blanton</t>
+  </si>
+  <si>
+    <t>M.Sargent</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,6 +801,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -805,10 +843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,6 +1075,38 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Rams/Players Stats.xlsx
+++ b/Base/Teams/Rams/Players Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE05432-FB4A-443B-A639-DA6810037990}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE6D48E-89CD-46C2-A646-2AAA73F5BD90}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>K.Blanton</t>
   </si>
   <si>
-    <t>M.Sargent</t>
+    <t>C.Akers</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
